--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.BottomUpSometimesEagerSubst-10.Test-3.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.BottomUpSometimesEagerSubst-10.Test-3.xlsx
@@ -127,8 +127,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -145,19 +149,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,7 +498,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -542,8 +550,8 @@
         <v>41.5569722222222</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>7.2190052344472247E-2</v>
+        <f>C$9/D2</f>
+        <v>1576.9916934649964</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -576,8 +584,8 @@
         <v>39.175555555555498</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.38289182596857507</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>1672.8543876567046</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -611,7 +619,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.6192690157014851</v>
+        <v>1684.4253165713781</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -645,7 +653,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>6.4792255419822844</v>
+        <v>1665.1609642894473</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -679,7 +687,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>24.673955135583491</v>
+        <v>1580.652639110913</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -713,7 +721,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>78.858388158510721</v>
+        <v>1262.0230691008546</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -747,7 +755,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>163.41180196347622</v>
+        <v>653.67713127488344</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -802,7 +810,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>39.35681738479532</v>
+        <v>1442.2550287813112</v>
       </c>
     </row>
   </sheetData>
